--- a/NEW HR/DIMARANAN, JOEL.xlsx
+++ b/NEW HR/DIMARANAN, JOEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA9621-AB7C-45CB-A933-77791E00F846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -184,12 +183,18 @@
   </si>
   <si>
     <t>5 - Single (including living common law)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/3,4/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -875,25 +880,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1200,34 +1205,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="3570" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1255,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1272,7 +1277,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1292,7 +1297,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1300,7 +1305,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1313,7 +1318,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1330,7 +1335,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1374,7 +1379,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.167</v>
+        <v>5.4169999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1384,12 +1389,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>1.167</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
@@ -1411,7 +1416,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>44803</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>44839</v>
       </c>
@@ -1459,7 +1464,7 @@
         <v>44836</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>45</v>
       </c>
@@ -1477,7 +1482,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>44958</v>
       </c>
@@ -1501,7 +1506,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>45019</v>
       </c>
@@ -1521,91 +1526,117 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>45077</v>
+      </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="40"/>
+      <c r="C16" s="40">
+        <v>1.25</v>
+      </c>
       <c r="D16" s="41"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G16" s="40">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>45107</v>
+      </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="40">
+        <v>1.25</v>
+      </c>
       <c r="D17" s="37"/>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>45138</v>
+      </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="40">
+        <v>1.25</v>
+      </c>
       <c r="D18" s="37"/>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>45169</v>
+      </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="40">
+        <v>1.25</v>
+      </c>
       <c r="D19" s="37"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>45199</v>
+      </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="40">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="37"/>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="20"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>45230</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="37">
+        <v>2</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
@@ -1615,9 +1646,11 @@
       <c r="H21" s="37"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -1633,7 +1666,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -1649,7 +1682,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -1665,7 +1698,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -1681,7 +1714,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -1697,7 +1730,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -1713,7 +1746,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -1729,7 +1762,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -1745,7 +1778,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -1761,7 +1794,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -1777,7 +1810,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -1793,7 +1826,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -1809,7 +1842,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -1825,7 +1858,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -1841,7 +1874,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -1857,7 +1890,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -1873,7 +1906,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -1889,7 +1922,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -1905,7 +1938,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -1921,7 +1954,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -1937,7 +1970,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -1953,7 +1986,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -1969,7 +2002,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -1985,7 +2018,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2001,7 +2034,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2017,7 +2050,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2033,7 +2066,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2049,7 +2082,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2065,7 +2098,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2081,7 +2114,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2097,7 +2130,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2113,7 +2146,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2129,7 +2162,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2145,7 +2178,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2161,7 +2194,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2177,7 +2210,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2193,7 +2226,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2209,7 +2242,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2225,7 +2258,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2241,7 +2274,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2257,7 +2290,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2273,7 +2306,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2289,7 +2322,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2305,7 +2338,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2321,7 +2354,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2337,7 +2370,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2353,7 +2386,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2369,7 +2402,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2385,7 +2418,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2401,7 +2434,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2417,7 +2450,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2433,7 +2466,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2449,7 +2482,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2465,7 +2498,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2481,7 +2514,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2497,7 +2530,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2513,7 +2546,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2529,7 +2562,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2545,7 +2578,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2561,7 +2594,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2577,7 +2610,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2593,7 +2626,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2609,7 +2642,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2625,7 +2658,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2641,7 +2674,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2657,7 +2690,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2673,7 +2706,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2689,7 +2722,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2705,7 +2738,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2721,7 +2754,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2737,7 +2770,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -2753,7 +2786,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -2769,7 +2802,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -2785,7 +2818,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -2801,7 +2834,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -2817,7 +2850,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -2833,7 +2866,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -2849,7 +2882,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -2865,7 +2898,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -2881,7 +2914,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -2897,7 +2930,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -2913,7 +2946,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -2929,7 +2962,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -2945,7 +2978,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -2961,7 +2994,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -2977,7 +3010,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -2993,7 +3026,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3009,7 +3042,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3025,7 +3058,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3041,7 +3074,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3057,7 +3090,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3073,7 +3106,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3089,7 +3122,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3105,7 +3138,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3121,7 +3154,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3137,7 +3170,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3153,7 +3186,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3169,7 +3202,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3185,7 +3218,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3201,7 +3234,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3217,7 +3250,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3233,7 +3266,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3249,7 +3282,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3265,7 +3298,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3281,7 +3314,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3297,7 +3330,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3313,7 +3346,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3329,7 +3362,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3345,7 +3378,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="15"/>
       <c r="C130" s="40"/>
@@ -3376,10 +3409,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3402,28 +3435,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="44" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="44" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3436,7 +3469,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3465,7 +3498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3485,17 +3518,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="45" t="s">
         <v>28</v>
       </c>
@@ -3516,7 +3549,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="44">
         <v>1</v>
       </c>
@@ -3543,7 +3576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="44">
         <v>2</v>
       </c>
@@ -3569,7 +3602,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="44">
         <v>3</v>
       </c>
@@ -3595,7 +3628,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="44">
         <v>4</v>
       </c>
@@ -3621,7 +3654,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="44">
         <v>5</v>
       </c>
@@ -3647,7 +3680,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="44">
         <v>6</v>
       </c>
@@ -3673,7 +3706,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="44">
         <v>7</v>
       </c>
@@ -3699,7 +3732,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="44">
         <v>8</v>
       </c>
@@ -3725,7 +3758,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="44">
         <v>9</v>
       </c>
@@ -3745,7 +3778,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="44">
         <v>10</v>
       </c>
@@ -3765,7 +3798,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="44">
         <v>11</v>
       </c>
@@ -3785,7 +3818,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="44">
         <v>12</v>
       </c>
@@ -3806,7 +3839,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="44">
         <v>13</v>
       </c>
@@ -3827,7 +3860,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44">
         <v>14</v>
       </c>
@@ -3848,7 +3881,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="44">
         <v>15</v>
       </c>
@@ -3869,7 +3902,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="44">
         <v>16</v>
       </c>
@@ -3890,7 +3923,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44">
         <v>17</v>
       </c>
@@ -3911,7 +3944,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44">
         <v>18</v>
       </c>
@@ -3932,7 +3965,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44">
         <v>19</v>
       </c>
@@ -3953,7 +3986,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44">
         <v>20</v>
       </c>
@@ -3974,7 +4007,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="44">
         <v>21</v>
       </c>
@@ -3995,7 +4028,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="44">
         <v>22</v>
       </c>
@@ -4016,7 +4049,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="44">
         <v>23</v>
       </c>
@@ -4037,7 +4070,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="44">
         <v>24</v>
       </c>
@@ -4058,7 +4091,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="44">
         <v>25</v>
       </c>
@@ -4079,7 +4112,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="44">
         <v>26</v>
       </c>
@@ -4100,7 +4133,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="44">
         <v>27</v>
       </c>
@@ -4121,7 +4154,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="44">
         <v>28</v>
       </c>
@@ -4142,7 +4175,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="44">
         <v>29</v>
       </c>
@@ -4163,7 +4196,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="44">
         <v>30</v>
       </c>
@@ -4184,7 +4217,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="44">
         <v>31</v>
       </c>
@@ -4205,7 +4238,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="44">
         <v>32</v>
       </c>
@@ -4214,7 +4247,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="44">
         <v>33</v>
       </c>
@@ -4223,7 +4256,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="44">
         <v>34</v>
       </c>
@@ -4232,7 +4265,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="44">
         <v>35</v>
       </c>
@@ -4241,7 +4274,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="44">
         <v>36</v>
       </c>
@@ -4250,7 +4283,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="44">
         <v>37</v>
       </c>
@@ -4259,7 +4292,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="44">
         <v>38</v>
       </c>
@@ -4268,7 +4301,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="44">
         <v>39</v>
       </c>
@@ -4277,7 +4310,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="44">
         <v>40</v>
       </c>
@@ -4286,7 +4319,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="44">
         <v>41</v>
       </c>
@@ -4295,7 +4328,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="44">
         <v>42</v>
       </c>
@@ -4304,7 +4337,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="44">
         <v>43</v>
       </c>
@@ -4313,7 +4346,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="44">
         <v>44</v>
       </c>
@@ -4322,7 +4355,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="44">
         <v>45</v>
       </c>
@@ -4331,7 +4364,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="44">
         <v>46</v>
       </c>
@@ -4340,7 +4373,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="44">
         <v>47</v>
       </c>
@@ -4349,7 +4382,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="44">
         <v>48</v>
       </c>
@@ -4358,7 +4391,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="44">
         <v>49</v>
       </c>
@@ -4367,7 +4400,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="44">
         <v>50</v>
       </c>
@@ -4376,7 +4409,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="44">
         <v>51</v>
       </c>
@@ -4385,7 +4418,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="44">
         <v>52</v>
       </c>
@@ -4394,7 +4427,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="44">
         <v>53</v>
       </c>
@@ -4403,7 +4436,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="44">
         <v>54</v>
       </c>
@@ -4412,7 +4445,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="44">
         <v>55</v>
       </c>
@@ -4421,7 +4454,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="44">
         <v>56</v>
       </c>
@@ -4430,7 +4463,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="44">
         <v>57</v>
       </c>
@@ -4439,7 +4472,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="44">
         <v>58</v>
       </c>
@@ -4448,7 +4481,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="44">
         <v>59</v>
       </c>
@@ -4457,7 +4490,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="44">
         <v>60</v>
       </c>
@@ -4466,7 +4499,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DIMARANAN, JOEL.xlsx
+++ b/NEW HR/DIMARANAN, JOEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>10/3,4/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/11,12,27/2023</t>
   </si>
 </sst>
 </file>
@@ -880,7 +889,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1209,12 +1218,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1388,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.4169999999999998</v>
+        <v>9.1669999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1389,7 +1398,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>7.4169999999999998</v>
+        <v>8.1669999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1633,15 +1642,17 @@
       <c r="B21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="40">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="37">
         <v>2</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="9"/>
@@ -1651,15 +1662,19 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="39">
+        <v>45260</v>
+      </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="40">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="37"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="9"/>
@@ -1667,23 +1682,35 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="39">
+        <v>45291</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="37"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H23" s="37"/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H23" s="37">
+        <v>3</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="46" t="s">
+        <v>52</v>
+      </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="37"/>
@@ -1699,7 +1726,9 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="39">
+        <v>45322</v>
+      </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
       <c r="D25" s="37"/>
@@ -1715,7 +1744,9 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39">
+        <v>45351</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="37"/>
@@ -1731,7 +1762,9 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="39">
+        <v>45382</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="37"/>
@@ -1747,7 +1780,9 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="39">
+        <v>45412</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="37"/>
@@ -1763,7 +1798,9 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="39">
+        <v>45443</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="37"/>
@@ -1779,7 +1816,9 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39">
+        <v>45473</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="37"/>
@@ -1795,7 +1834,9 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="39">
+        <v>45504</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="37"/>
@@ -1811,7 +1852,9 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="39">
+        <v>45535</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="37"/>
@@ -3379,20 +3422,36 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="41"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="37"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="41"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="37"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="39"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="41"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
